--- a/visualizations/lcoc_buildings.xlsx
+++ b/visualizations/lcoc_buildings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,1804 +517,1857 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33.28968367165838</v>
+        <v>0.15</v>
       </c>
       <c r="C2" t="n">
-        <v>36.11421273039118</v>
+        <v>0.03</v>
       </c>
       <c r="D2" t="n">
-        <v>30.46515461292557</v>
+        <v>0.03</v>
       </c>
       <c r="E2" t="n">
-        <v>33.29078851430585</v>
+        <v>0.1</v>
       </c>
       <c r="F2" t="n">
-        <v>33.55523038656893</v>
+        <v>0.06</v>
       </c>
       <c r="G2" t="n">
-        <v>35.20638750945773</v>
+        <v>0.06</v>
       </c>
       <c r="H2" t="n">
-        <v>35.9630464721071</v>
+        <v>0.06</v>
       </c>
       <c r="I2" t="n">
-        <v>28.85074659110105</v>
+        <v>0.03</v>
       </c>
       <c r="J2" t="n">
-        <v>33.48727274511489</v>
+        <v>0.09</v>
       </c>
       <c r="K2" t="n">
-        <v>34.10223698888359</v>
+        <v>0.09</v>
       </c>
       <c r="L2" t="n">
-        <v>33.77525894246013</v>
+        <v>0.03</v>
       </c>
       <c r="M2" t="n">
-        <v>28.68967722806283</v>
+        <v>0.03</v>
       </c>
       <c r="N2" t="n">
-        <v>14.12264529366465</v>
+        <v>0.03</v>
       </c>
       <c r="O2" t="n">
-        <v>25.86309359143022</v>
+        <v>0.09</v>
       </c>
       <c r="P2" t="n">
-        <v>38.08144326615715</v>
+        <v>0.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.28968367165838</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.65494888975919</v>
+        <v>33.1762660167099</v>
       </c>
       <c r="C3" t="n">
-        <v>37.38292016718619</v>
+        <v>35.99117193016637</v>
       </c>
       <c r="D3" t="n">
-        <v>31.92697761233238</v>
+        <v>30.36136010325341</v>
       </c>
       <c r="E3" t="n">
-        <v>34.65550399821379</v>
+        <v>33.17736709516834</v>
       </c>
       <c r="F3" t="n">
-        <v>34.91141777219151</v>
+        <v>33.44090801633443</v>
       </c>
       <c r="G3" t="n">
-        <v>36.75645814002138</v>
+        <v>35.08643966165257</v>
       </c>
       <c r="H3" t="n">
-        <v>37.86274355734548</v>
+        <v>35.84052069397415</v>
       </c>
       <c r="I3" t="n">
-        <v>29.8604385761212</v>
+        <v>28.75245235514045</v>
       </c>
       <c r="J3" t="n">
-        <v>34.84578329291591</v>
+        <v>33.37318190595787</v>
       </c>
       <c r="K3" t="n">
-        <v>35.4722674227041</v>
+        <v>33.98605097204049</v>
       </c>
       <c r="L3" t="n">
-        <v>35.15667203931805</v>
+        <v>33.66018693690084</v>
       </c>
       <c r="M3" t="n">
-        <v>29.96186692594121</v>
+        <v>28.59193175398354</v>
       </c>
       <c r="N3" t="n">
-        <v>13.63985638713409</v>
+        <v>14.07452956728302</v>
       </c>
       <c r="O3" t="n">
-        <v>26.35684306363176</v>
+        <v>25.77497826255581</v>
       </c>
       <c r="P3" t="n">
-        <v>39.90872201541556</v>
+        <v>37.95170012906696</v>
       </c>
       <c r="Q3" t="n">
-        <v>34.65494888975919</v>
+        <v>33.1762660167099</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35.75990885487523</v>
+        <v>34.53687978840627</v>
       </c>
       <c r="C4" t="n">
-        <v>38.37130460788966</v>
+        <v>37.25555689205545</v>
       </c>
       <c r="D4" t="n">
-        <v>33.14851310186079</v>
+        <v>31.81820268475725</v>
       </c>
       <c r="E4" t="n">
-        <v>35.7605815300253</v>
+        <v>34.53743300561131</v>
       </c>
       <c r="F4" t="n">
-        <v>36.00541794652371</v>
+        <v>34.79247488364675</v>
       </c>
       <c r="G4" t="n">
-        <v>38.03020186385555</v>
+        <v>36.63122921542206</v>
       </c>
       <c r="H4" t="n">
-        <v>39.47709456256487</v>
+        <v>37.73374552820993</v>
       </c>
       <c r="I4" t="n">
-        <v>30.67112478934625</v>
+        <v>29.75870432858553</v>
       </c>
       <c r="J4" t="n">
-        <v>35.94258825258617</v>
+        <v>34.72706402045583</v>
       </c>
       <c r="K4" t="n">
-        <v>36.57866388408272</v>
+        <v>35.35141372440916</v>
       </c>
       <c r="L4" t="n">
-        <v>36.27241445381605</v>
+        <v>35.03689357167563</v>
       </c>
       <c r="M4" t="n">
-        <v>31.00878988053113</v>
+        <v>29.85978711292358</v>
       </c>
       <c r="N4" t="n">
-        <v>13.05697876507285</v>
+        <v>13.59338551824506</v>
       </c>
       <c r="O4" t="n">
-        <v>26.5895586070441</v>
+        <v>26.2670455347154</v>
       </c>
       <c r="P4" t="n">
-        <v>41.43564137732562</v>
+        <v>39.77275335594666</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.75990885487523</v>
+        <v>34.53687978840627</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42.04550882371412</v>
+        <v>35.6380751647899</v>
       </c>
       <c r="C5" t="n">
-        <v>44.19765820820854</v>
+        <v>38.24057391579703</v>
       </c>
       <c r="D5" t="n">
-        <v>39.89335943921969</v>
+        <v>33.03557641378276</v>
       </c>
       <c r="E5" t="n">
-        <v>42.04638347663874</v>
+        <v>35.63874554814174</v>
       </c>
       <c r="F5" t="n">
-        <v>42.24784209314244</v>
+        <v>35.88274780915584</v>
       </c>
       <c r="G5" t="n">
-        <v>45.17398501383811</v>
+        <v>37.90063330576533</v>
       </c>
       <c r="H5" t="n">
-        <v>48.252587260654</v>
+        <v>39.34259645397282</v>
       </c>
       <c r="I5" t="n">
-        <v>35.56693605374986</v>
+        <v>30.56662854112261</v>
       </c>
       <c r="J5" t="n">
-        <v>42.1960617810317</v>
+        <v>35.8201321754244</v>
       </c>
       <c r="K5" t="n">
-        <v>42.91216748264986</v>
+        <v>36.45404070292545</v>
       </c>
       <c r="L5" t="n">
-        <v>42.61817701857068</v>
+        <v>36.14883466173248</v>
       </c>
       <c r="M5" t="n">
-        <v>36.87249071832042</v>
+        <v>30.90314321035762</v>
       </c>
       <c r="N5" t="n">
-        <v>10.76074692247167</v>
+        <v>13.01249375503631</v>
       </c>
       <c r="O5" t="n">
-        <v>28.28508033070185</v>
+        <v>26.49896821834979</v>
       </c>
       <c r="P5" t="n">
-        <v>49.86669929902487</v>
+        <v>41.29447051722808</v>
       </c>
       <c r="Q5" t="n">
-        <v>42.04550882371412</v>
+        <v>35.6380751647899</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.84715479939629</v>
+        <v>41.90226015067365</v>
       </c>
       <c r="C6" t="n">
-        <v>39.24273209047593</v>
+        <v>44.04707718143665</v>
       </c>
       <c r="D6" t="n">
-        <v>34.45157750831695</v>
+        <v>39.75744311991068</v>
       </c>
       <c r="E6" t="n">
-        <v>36.84798931845157</v>
+        <v>41.90313182366358</v>
       </c>
       <c r="F6" t="n">
-        <v>37.07237382413717</v>
+        <v>42.10390407246014</v>
       </c>
       <c r="G6" t="n">
-        <v>39.33408163379625</v>
+        <v>45.02007765035933</v>
       </c>
       <c r="H6" t="n">
-        <v>41.26778891708643</v>
+        <v>48.08819112681629</v>
       </c>
       <c r="I6" t="n">
-        <v>31.43998772586129</v>
+        <v>35.44575982027447</v>
       </c>
       <c r="J6" t="n">
-        <v>37.01473668207282</v>
+        <v>42.0523001754103</v>
       </c>
       <c r="K6" t="n">
-        <v>37.66205516890028</v>
+        <v>42.76596611129882</v>
       </c>
       <c r="L6" t="n">
-        <v>37.36574687227629</v>
+        <v>42.47297727010503</v>
       </c>
       <c r="M6" t="n">
-        <v>32.08442953847105</v>
+        <v>36.74686647176316</v>
       </c>
       <c r="N6" t="n">
-        <v>11.97788645539652</v>
+        <v>10.7240851538145</v>
       </c>
       <c r="O6" t="n">
-        <v>26.44828904573613</v>
+        <v>28.18871331463828</v>
       </c>
       <c r="P6" t="n">
-        <v>43.06447188539619</v>
+        <v>49.6968038998886</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.84715479939629</v>
+        <v>41.90226015067365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41.82988952565692</v>
+        <v>36.72161687208852</v>
       </c>
       <c r="C7" t="n">
-        <v>44.00542427864549</v>
+        <v>39.10903245273312</v>
       </c>
       <c r="D7" t="n">
-        <v>39.65435477266848</v>
+        <v>34.33420129144422</v>
       </c>
       <c r="E7" t="n">
-        <v>41.83077943737397</v>
+        <v>36.72244854794482</v>
       </c>
       <c r="F7" t="n">
-        <v>42.0344213590411</v>
+        <v>36.94606857762361</v>
       </c>
       <c r="G7" t="n">
-        <v>44.92511110172818</v>
+        <v>39.20007076897522</v>
       </c>
       <c r="H7" t="n">
-        <v>47.93629240109434</v>
+        <v>41.12718992882179</v>
       </c>
       <c r="I7" t="n">
-        <v>35.39817757235591</v>
+        <v>31.3328719684799</v>
       </c>
       <c r="J7" t="n">
-        <v>41.98207839933332</v>
+        <v>36.8886278047875</v>
       </c>
       <c r="K7" t="n">
-        <v>42.69542020940561</v>
+        <v>37.53374088331174</v>
       </c>
       <c r="L7" t="n">
-        <v>42.40108270548697</v>
+        <v>37.23844210640792</v>
       </c>
       <c r="M7" t="n">
-        <v>36.66790993424656</v>
+        <v>31.97511817358982</v>
       </c>
       <c r="N7" t="n">
-        <v>10.87767376494251</v>
+        <v>11.93707790322133</v>
       </c>
       <c r="O7" t="n">
-        <v>28.26128460984726</v>
+        <v>26.35817996117546</v>
       </c>
       <c r="P7" t="n">
-        <v>49.56794346583557</v>
+        <v>42.91775161430527</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.82988952565692</v>
+        <v>36.72161687208852</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.84920603713181</v>
+        <v>41.68737546563917</v>
       </c>
       <c r="C8" t="n">
-        <v>43.62993328501768</v>
+        <v>43.85549819115471</v>
       </c>
       <c r="D8" t="n">
-        <v>38.0684787892461</v>
+        <v>39.51925274012376</v>
       </c>
       <c r="E8" t="n">
-        <v>40.85024134926144</v>
+        <v>41.68826234543495</v>
       </c>
       <c r="F8" t="n">
-        <v>41.23625149700542</v>
+        <v>41.89121046089375</v>
       </c>
       <c r="G8" t="n">
-        <v>43.54376301690171</v>
+        <v>44.77205164944517</v>
       </c>
       <c r="H8" t="n">
-        <v>45.5000530506429</v>
+        <v>47.77297388101822</v>
       </c>
       <c r="I8" t="n">
-        <v>32.22135225445325</v>
+        <v>35.27757629751938</v>
       </c>
       <c r="J8" t="n">
-        <v>41.13720038806002</v>
+        <v>41.8390458331822</v>
       </c>
       <c r="K8" t="n">
-        <v>40.84920603713181</v>
+        <v>42.54995729407867</v>
       </c>
       <c r="L8" t="n">
-        <v>41.69771617761359</v>
+        <v>42.25662259540705</v>
       </c>
       <c r="M8" t="n">
-        <v>35.51295817186963</v>
+        <v>36.54298269259345</v>
       </c>
       <c r="N8" t="n">
-        <v>13.90363623942916</v>
+        <v>10.84061362757735</v>
       </c>
       <c r="O8" t="n">
-        <v>36.91585740672075</v>
+        <v>28.16499866559211</v>
       </c>
       <c r="P8" t="n">
-        <v>47.58559848655684</v>
+        <v>49.39906592515468</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.84920603713181</v>
+        <v>41.68737546563917</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36.35697664336681</v>
+        <v>40.74107503311772</v>
       </c>
       <c r="C9" t="n">
-        <v>38.75681000811861</v>
+        <v>43.51444148116503</v>
       </c>
       <c r="D9" t="n">
-        <v>33.95714327861484</v>
+        <v>37.96770858507057</v>
       </c>
       <c r="E9" t="n">
-        <v>36.35755265427228</v>
+        <v>40.74210760469617</v>
       </c>
       <c r="F9" t="n">
-        <v>36.58259580078774</v>
+        <v>41.12709595375948</v>
       </c>
       <c r="G9" t="n">
-        <v>38.79275762532716</v>
+        <v>43.4284993124055</v>
       </c>
       <c r="H9" t="n">
-        <v>40.64655407470438</v>
+        <v>45.3796108953024</v>
       </c>
       <c r="I9" t="n">
-        <v>31.04458746371582</v>
+        <v>32.13605984591051</v>
       </c>
       <c r="J9" t="n">
-        <v>36.52485625838622</v>
+        <v>41.02830704075123</v>
       </c>
       <c r="K9" t="n">
-        <v>37.16605438026759</v>
+        <v>40.74107503311772</v>
       </c>
       <c r="L9" t="n">
-        <v>36.86990466108186</v>
+        <v>41.58733910170956</v>
       </c>
       <c r="M9" t="n">
-        <v>31.6413539648915</v>
+        <v>35.41895262818429</v>
       </c>
       <c r="N9" t="n">
-        <v>11.99916682375898</v>
+        <v>13.86683224023638</v>
       </c>
       <c r="O9" t="n">
-        <v>26.21186895439555</v>
+        <v>36.81813828038568</v>
       </c>
       <c r="P9" t="n">
-        <v>42.44642909826829</v>
+        <v>47.45963573133742</v>
       </c>
       <c r="Q9" t="n">
-        <v>36.35697664336681</v>
+        <v>40.74107503311772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.55651513613025</v>
+        <v>36.2331087486587</v>
       </c>
       <c r="C10" t="n">
-        <v>35.39415321523384</v>
+        <v>38.62476590257047</v>
       </c>
       <c r="D10" t="n">
-        <v>29.71887705702655</v>
+        <v>33.84145159474675</v>
       </c>
       <c r="E10" t="n">
-        <v>32.55794351057861</v>
+        <v>36.23368279710015</v>
       </c>
       <c r="F10" t="n">
-        <v>32.82329428916501</v>
+        <v>36.45795922362537</v>
       </c>
       <c r="G10" t="n">
-        <v>34.39334761019124</v>
+        <v>38.66059104656825</v>
       </c>
       <c r="H10" t="n">
-        <v>35.02036776195528</v>
+        <v>40.50807162799929</v>
       </c>
       <c r="I10" t="n">
-        <v>28.26990731224394</v>
+        <v>30.93881883149612</v>
       </c>
       <c r="J10" t="n">
-        <v>32.75502124712971</v>
+        <v>36.40041639932912</v>
       </c>
       <c r="K10" t="n">
-        <v>33.36087067867957</v>
+        <v>37.03942996493598</v>
       </c>
       <c r="L10" t="n">
-        <v>33.03238440137082</v>
+        <v>36.74428922519851</v>
       </c>
       <c r="M10" t="n">
-        <v>28.02392648692051</v>
+        <v>31.53355215453221</v>
       </c>
       <c r="N10" t="n">
-        <v>14.18819039551828</v>
+        <v>11.95828576955884</v>
       </c>
       <c r="O10" t="n">
-        <v>25.4956666868325</v>
+        <v>26.12256535097455</v>
       </c>
       <c r="P10" t="n">
-        <v>37.14859632128299</v>
+        <v>42.30181449343318</v>
       </c>
       <c r="Q10" t="n">
-        <v>32.55651513613025</v>
+        <v>36.2331087486587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>32.25218656209023</v>
+        <v>32.44559537983415</v>
       </c>
       <c r="C11" t="n">
-        <v>34.95485699817462</v>
+        <v>35.27356565134609</v>
       </c>
       <c r="D11" t="n">
-        <v>29.54951612600663</v>
+        <v>29.61762510832209</v>
       </c>
       <c r="E11" t="n">
-        <v>32.25502844458401</v>
+        <v>32.44701888782352</v>
       </c>
       <c r="F11" t="n">
-        <v>32.5526181575986</v>
+        <v>32.7114656186772</v>
       </c>
       <c r="G11" t="n">
-        <v>34.1260700002576</v>
+        <v>34.27616978206135</v>
       </c>
       <c r="H11" t="n">
-        <v>34.90989233044526</v>
+        <v>34.90105368176845</v>
       </c>
       <c r="I11" t="n">
-        <v>27.30416735395702</v>
+        <v>28.17359199051874</v>
       </c>
       <c r="J11" t="n">
-        <v>32.47573291857027</v>
+        <v>32.64342518228636</v>
       </c>
       <c r="K11" t="n">
-        <v>33.17328117017116</v>
+        <v>33.24721049023395</v>
       </c>
       <c r="L11" t="n">
-        <v>32.79287577742023</v>
+        <v>32.91984336273818</v>
       </c>
       <c r="M11" t="n">
-        <v>27.81076620964367</v>
+        <v>27.92844921967026</v>
       </c>
       <c r="N11" t="n">
-        <v>13.51335218042002</v>
+        <v>14.13985135756004</v>
       </c>
       <c r="O11" t="n">
-        <v>26.53151021476766</v>
+        <v>25.40880317814045</v>
       </c>
       <c r="P11" t="n">
-        <v>36.93689515750814</v>
+        <v>37.02203138540241</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.25218656209023</v>
+        <v>32.44559537983415</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>35.21318860982697</v>
+        <v>32.14117610622291</v>
       </c>
       <c r="C12" t="n">
-        <v>37.96730048161216</v>
+        <v>34.83454408225265</v>
       </c>
       <c r="D12" t="n">
-        <v>32.45907673804184</v>
+        <v>29.44780813019394</v>
       </c>
       <c r="E12" t="n">
-        <v>35.21526462971586</v>
+        <v>32.1440082070955</v>
       </c>
       <c r="F12" t="n">
-        <v>35.51933848766694</v>
+        <v>32.44057363080681</v>
       </c>
       <c r="G12" t="n">
-        <v>37.3574515349173</v>
+        <v>34.00860972883086</v>
       </c>
       <c r="H12" t="n">
-        <v>38.50826201871344</v>
+        <v>34.78973418072039</v>
       </c>
       <c r="I12" t="n">
-        <v>29.55805617140301</v>
+        <v>27.21018773929724</v>
       </c>
       <c r="J12" t="n">
-        <v>35.44098984894861</v>
+        <v>32.36395302702786</v>
       </c>
       <c r="K12" t="n">
-        <v>36.18895371284344</v>
+        <v>33.05910035150864</v>
       </c>
       <c r="L12" t="n">
-        <v>35.80607579888027</v>
+        <v>32.68000429559856</v>
       </c>
       <c r="M12" t="n">
-        <v>30.45251940654117</v>
+        <v>27.71504290638766</v>
       </c>
       <c r="N12" t="n">
-        <v>13.77055935892576</v>
+        <v>13.46683988014679</v>
       </c>
       <c r="O12" t="n">
-        <v>28.72398838564077</v>
+        <v>26.4401900483622</v>
       </c>
       <c r="P12" t="n">
-        <v>40.57384592255239</v>
+        <v>36.80976016274229</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.21318860982697</v>
+        <v>32.14117610622291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>33.56487998081906</v>
+        <v>35.09198652907521</v>
       </c>
       <c r="C13" t="n">
-        <v>36.45962933861947</v>
+        <v>37.83661888188864</v>
       </c>
       <c r="D13" t="n">
-        <v>30.67013062301838</v>
+        <v>32.34735417626186</v>
       </c>
       <c r="E13" t="n">
-        <v>33.56585153746371</v>
+        <v>35.09405540340472</v>
       </c>
       <c r="F13" t="n">
-        <v>33.8370284227254</v>
+        <v>35.39708265394135</v>
       </c>
       <c r="G13" t="n">
-        <v>35.47399330000071</v>
+        <v>37.22886900557626</v>
       </c>
       <c r="H13" t="n">
-        <v>36.16660126042255</v>
+        <v>38.37571845571729</v>
       </c>
       <c r="I13" t="n">
-        <v>29.13653494910865</v>
+        <v>29.45631878116987</v>
       </c>
       <c r="J13" t="n">
-        <v>33.7673812939945</v>
+        <v>35.31900368742288</v>
       </c>
       <c r="K13" t="n">
-        <v>34.39036051912416</v>
+        <v>36.06439309611469</v>
       </c>
       <c r="L13" t="n">
-        <v>34.05545926384973</v>
+        <v>35.68283302929001</v>
       </c>
       <c r="M13" t="n">
-        <v>28.90575477172678</v>
+        <v>30.34770331740189</v>
       </c>
       <c r="N13" t="n">
-        <v>14.47374678900361</v>
+        <v>13.72316176406689</v>
       </c>
       <c r="O13" t="n">
-        <v>26.1966686195887</v>
+        <v>28.62512181611752</v>
       </c>
       <c r="P13" t="n">
-        <v>38.33766327877288</v>
+        <v>40.43419272032742</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.56487998081906</v>
+        <v>35.09198652907521</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>37.29698270116899</v>
+        <v>33.45052473450313</v>
       </c>
       <c r="C14" t="n">
-        <v>40.42073161709509</v>
+        <v>36.33541170709545</v>
       </c>
       <c r="D14" t="n">
-        <v>34.1732337852431</v>
+        <v>30.56563776191054</v>
       </c>
       <c r="E14" t="n">
-        <v>37.29706695512686</v>
+        <v>33.45149298106297</v>
       </c>
       <c r="F14" t="n">
-        <v>37.64422180892295</v>
+        <v>33.72174596909854</v>
       </c>
       <c r="G14" t="n">
-        <v>39.46480651332296</v>
+        <v>35.35313372165723</v>
       </c>
       <c r="H14" t="n">
-        <v>40.37373054460959</v>
+        <v>36.04338197294382</v>
       </c>
       <c r="I14" t="n">
-        <v>31.56710847904017</v>
+        <v>29.03726703476479</v>
       </c>
       <c r="J14" t="n">
-        <v>37.55535778064239</v>
+        <v>33.65233612751319</v>
       </c>
       <c r="K14" t="n">
-        <v>38.35088047715216</v>
+        <v>34.27319286798685</v>
       </c>
       <c r="L14" t="n">
-        <v>37.92666469250824</v>
+        <v>33.93943261829804</v>
       </c>
       <c r="M14" t="n">
-        <v>32.16159741888531</v>
+        <v>28.80727312338608</v>
       </c>
       <c r="N14" t="n">
-        <v>15.61874457962952</v>
+        <v>14.42443486296315</v>
       </c>
       <c r="O14" t="n">
-        <v>30.77424758765594</v>
+        <v>26.10741680357262</v>
       </c>
       <c r="P14" t="n">
-        <v>42.71654223155399</v>
+        <v>38.20704720238808</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.29698270116899</v>
+        <v>33.45052473450313</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.3071123236427</v>
+        <v>37.16860830260964</v>
       </c>
       <c r="C15" t="n">
-        <v>37.28166382844396</v>
+        <v>40.28160542685475</v>
       </c>
       <c r="D15" t="n">
-        <v>31.33256081884211</v>
+        <v>34.05561117836473</v>
       </c>
       <c r="E15" t="n">
-        <v>34.30740432249611</v>
+        <v>37.16869226656948</v>
       </c>
       <c r="F15" t="n">
-        <v>34.58676332528133</v>
+        <v>37.51465223026092</v>
       </c>
       <c r="G15" t="n">
-        <v>36.25054780360666</v>
+        <v>39.32897057074817</v>
       </c>
       <c r="H15" t="n">
-        <v>36.93478739495219</v>
+        <v>40.23476612977237</v>
       </c>
       <c r="I15" t="n">
-        <v>29.78407303322806</v>
+        <v>31.45845602857995</v>
       </c>
       <c r="J15" t="n">
-        <v>34.51519617180335</v>
+        <v>37.42609406763913</v>
       </c>
       <c r="K15" t="n">
-        <v>35.14892167277333</v>
+        <v>38.21887861375955</v>
       </c>
       <c r="L15" t="n">
-        <v>34.80762448901259</v>
+        <v>37.79612295919236</v>
       </c>
       <c r="M15" t="n">
-        <v>29.53785291411835</v>
+        <v>32.05089876643834</v>
       </c>
       <c r="N15" t="n">
-        <v>14.87275752400409</v>
+        <v>15.56498562122457</v>
       </c>
       <c r="O15" t="n">
-        <v>26.81378156289059</v>
+        <v>30.66832412578142</v>
       </c>
       <c r="P15" t="n">
-        <v>39.16570102355257</v>
+        <v>42.56951397295603</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.3071123236427</v>
+        <v>37.16860830260964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>38.55942431069029</v>
+        <v>34.19022829836388</v>
       </c>
       <c r="C16" t="n">
-        <v>41.85331978180898</v>
+        <v>37.15464553275496</v>
       </c>
       <c r="D16" t="n">
-        <v>35.26552883957199</v>
+        <v>31.22581106397347</v>
       </c>
       <c r="E16" t="n">
-        <v>38.56017152621276</v>
+        <v>34.19051930237981</v>
       </c>
       <c r="F16" t="n">
-        <v>39.01789692369594</v>
+        <v>34.46892653153758</v>
       </c>
       <c r="G16" t="n">
-        <v>40.7684190062004</v>
+        <v>36.12704251100505</v>
       </c>
       <c r="H16" t="n">
-        <v>41.6114894461266</v>
+        <v>36.80895090417403</v>
       </c>
       <c r="I16" t="n">
-        <v>31.4048823585781</v>
+        <v>29.68259896241497</v>
       </c>
       <c r="J16" t="n">
-        <v>38.900566466561</v>
+        <v>34.39760320671231</v>
       </c>
       <c r="K16" t="n">
-        <v>38.55942431069029</v>
+        <v>35.02916961056049</v>
       </c>
       <c r="L16" t="n">
-        <v>39.36332203909534</v>
+        <v>34.68903522325659</v>
       </c>
       <c r="M16" t="n">
-        <v>33.2212289176183</v>
+        <v>29.43721771305199</v>
       </c>
       <c r="N16" t="n">
-        <v>16.46947735559199</v>
+        <v>14.82208617195318</v>
       </c>
       <c r="O16" t="n">
-        <v>35.33763715822094</v>
+        <v>26.72242724858832</v>
       </c>
       <c r="P16" t="n">
-        <v>44.08191104946523</v>
+        <v>39.03226382996677</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.55942431069029</v>
+        <v>34.19022829836388</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>37.5388175996702</v>
+        <v>38.45735453579356</v>
       </c>
       <c r="C17" t="n">
-        <v>39.98845746134622</v>
+        <v>41.74253081114414</v>
       </c>
       <c r="D17" t="n">
-        <v>35.08917773799481</v>
+        <v>35.17217826044337</v>
       </c>
       <c r="E17" t="n">
-        <v>37.53932067852252</v>
+        <v>38.45809977337882</v>
       </c>
       <c r="F17" t="n">
-        <v>37.81112205908123</v>
+        <v>38.9146135363752</v>
       </c>
       <c r="G17" t="n">
-        <v>40.06787942879954</v>
+        <v>40.66050185169805</v>
       </c>
       <c r="H17" t="n">
-        <v>42.02424227623636</v>
+        <v>41.5013406190419</v>
       </c>
       <c r="I17" t="n">
-        <v>30.97643469165559</v>
+        <v>31.32175120892268</v>
       </c>
       <c r="J17" t="n">
-        <v>37.7414350029816</v>
+        <v>38.79759366202417</v>
       </c>
       <c r="K17" t="n">
-        <v>38.52793928412999</v>
+        <v>38.45735453579356</v>
       </c>
       <c r="L17" t="n">
-        <v>38.167969786486</v>
+        <v>39.25912428480978</v>
       </c>
       <c r="M17" t="n">
-        <v>32.68259790194909</v>
+        <v>33.13328975830688</v>
       </c>
       <c r="N17" t="n">
-        <v>12.24819930837849</v>
+        <v>16.42588137675145</v>
       </c>
       <c r="O17" t="n">
-        <v>29.82194008314297</v>
+        <v>35.24409570280243</v>
       </c>
       <c r="P17" t="n">
-        <v>43.86147217249351</v>
+        <v>43.96522282555444</v>
       </c>
       <c r="Q17" t="n">
-        <v>37.5388175996702</v>
+        <v>38.45735453579356</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.41471463628143</v>
+        <v>37.40961081716453</v>
       </c>
       <c r="C18" t="n">
-        <v>47.74451462929391</v>
+        <v>39.8508191377036</v>
       </c>
       <c r="D18" t="n">
-        <v>43.08491464326879</v>
+        <v>34.96840249662612</v>
       </c>
       <c r="E18" t="n">
-        <v>45.41563712502963</v>
+        <v>37.41011216444395</v>
       </c>
       <c r="F18" t="n">
-        <v>45.7389961746432</v>
+        <v>37.68097801788412</v>
       </c>
       <c r="G18" t="n">
-        <v>48.79128610340359</v>
+        <v>39.92996773861181</v>
       </c>
       <c r="H18" t="n">
-        <v>52.10879330932754</v>
+        <v>41.87959688037823</v>
       </c>
       <c r="I18" t="n">
-        <v>34.76454749094665</v>
+        <v>30.86981531161309</v>
       </c>
       <c r="J18" t="n">
-        <v>45.65600735468497</v>
+        <v>37.61153082123869</v>
       </c>
       <c r="K18" t="n">
-        <v>45.41471463628143</v>
+        <v>38.39532799294431</v>
       </c>
       <c r="L18" t="n">
-        <v>46.34990209674088</v>
+        <v>38.0365974927852</v>
       </c>
       <c r="M18" t="n">
-        <v>39.82483317579769</v>
+        <v>32.57010599120563</v>
       </c>
       <c r="N18" t="n">
-        <v>11.64899996506283</v>
+        <v>12.20604160269366</v>
       </c>
       <c r="O18" t="n">
-        <v>40.47961823484584</v>
+        <v>29.71929441733347</v>
       </c>
       <c r="P18" t="n">
-        <v>53.85614330408591</v>
+        <v>43.71050312078264</v>
       </c>
       <c r="Q18" t="n">
-        <v>45.41471463628143</v>
+        <v>37.40961081716453</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>38.33994730779089</v>
+        <v>45.29449837831621</v>
       </c>
       <c r="C19" t="n">
-        <v>40.84826891593286</v>
+        <v>47.61813121076828</v>
       </c>
       <c r="D19" t="n">
-        <v>35.83162569964865</v>
+        <v>42.97086554586399</v>
       </c>
       <c r="E19" t="n">
-        <v>38.34083897250499</v>
+        <v>45.29541842516542</v>
       </c>
       <c r="F19" t="n">
-        <v>38.61877488984477</v>
+        <v>45.61792151839493</v>
       </c>
       <c r="G19" t="n">
-        <v>40.91978123449886</v>
+        <v>48.66213179992204</v>
       </c>
       <c r="H19" t="n">
-        <v>42.90829091845499</v>
+        <v>51.97085730799184</v>
       </c>
       <c r="I19" t="n">
-        <v>31.63891300942431</v>
+        <v>34.67252304814905</v>
       </c>
       <c r="J19" t="n">
-        <v>38.54741846257653</v>
+        <v>45.53515237625408</v>
       </c>
       <c r="K19" t="n">
-        <v>39.34996849294032</v>
+        <v>45.29449837831621</v>
       </c>
       <c r="L19" t="n">
-        <v>38.98238364269911</v>
+        <v>46.22721032532385</v>
       </c>
       <c r="M19" t="n">
-        <v>33.37720785334783</v>
+        <v>39.71941376588117</v>
       </c>
       <c r="N19" t="n">
-        <v>12.54160804071013</v>
+        <v>11.61816416226076</v>
       </c>
       <c r="O19" t="n">
-        <v>30.476238948435</v>
+        <v>40.37246555829535</v>
       </c>
       <c r="P19" t="n">
-        <v>44.78953212456105</v>
+        <v>53.7135819323299</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.33994730779089</v>
+        <v>45.29449837831621</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>36.71793876473479</v>
+        <v>38.20798307583491</v>
       </c>
       <c r="C20" t="n">
-        <v>39.12155289623905</v>
+        <v>40.70767116312565</v>
       </c>
       <c r="D20" t="n">
-        <v>34.31432463323046</v>
+        <v>35.70829498854391</v>
       </c>
       <c r="E20" t="n">
-        <v>36.71883426148102</v>
+        <v>38.20887167148248</v>
       </c>
       <c r="F20" t="n">
-        <v>36.94391336908859</v>
+        <v>38.48585094692679</v>
       </c>
       <c r="G20" t="n">
-        <v>39.1879255754563</v>
+        <v>40.77893733977291</v>
       </c>
       <c r="H20" t="n">
-        <v>41.0901951929098</v>
+        <v>42.76060267021249</v>
       </c>
       <c r="I20" t="n">
-        <v>31.34029929775789</v>
+        <v>31.53001341126648</v>
       </c>
       <c r="J20" t="n">
-        <v>36.88608286214536</v>
+        <v>38.41474012500704</v>
       </c>
       <c r="K20" t="n">
-        <v>37.53188226387155</v>
+        <v>39.2145278172405</v>
       </c>
       <c r="L20" t="n">
-        <v>37.23509857319203</v>
+        <v>38.84820817615702</v>
       </c>
       <c r="M20" t="n">
-        <v>31.9645185290843</v>
+        <v>33.26232512897051</v>
       </c>
       <c r="N20" t="n">
-        <v>12.01807065752113</v>
+        <v>12.49844043645396</v>
       </c>
       <c r="O20" t="n">
-        <v>26.40416374427462</v>
+        <v>30.37134121778737</v>
       </c>
       <c r="P20" t="n">
-        <v>42.89290579153785</v>
+        <v>44.63536873568012</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.71793876473479</v>
+        <v>38.20798307583491</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>41.71616033639505</v>
+        <v>36.59284107530304</v>
       </c>
       <c r="C21" t="n">
-        <v>43.98480380474968</v>
+        <v>38.98826611492871</v>
       </c>
       <c r="D21" t="n">
-        <v>39.44751686804</v>
+        <v>34.19741603567729</v>
       </c>
       <c r="E21" t="n">
-        <v>41.71707643290079</v>
+        <v>36.59373352109985</v>
       </c>
       <c r="F21" t="n">
-        <v>41.96834505256977</v>
+        <v>36.81804578619806</v>
       </c>
       <c r="G21" t="n">
-        <v>44.75345463585644</v>
+        <v>39.05441266302066</v>
       </c>
       <c r="H21" t="n">
-        <v>47.60791348378337</v>
+        <v>40.95020126487728</v>
       </c>
       <c r="I21" t="n">
-        <v>33.93978271343977</v>
+        <v>31.2335231779607</v>
       </c>
       <c r="J21" t="n">
-        <v>41.90380695979842</v>
+        <v>36.76041230727548</v>
       </c>
       <c r="K21" t="n">
-        <v>42.77250334677991</v>
+        <v>37.40401147620783</v>
       </c>
       <c r="L21" t="n">
-        <v>42.41020071826544</v>
+        <v>37.10823892491179</v>
       </c>
       <c r="M21" t="n">
-        <v>36.52365474199581</v>
+        <v>31.85561569994108</v>
       </c>
       <c r="N21" t="n">
-        <v>11.34321734177428</v>
+        <v>11.97712519812821</v>
       </c>
       <c r="O21" t="n">
-        <v>32.35357317410082</v>
+        <v>26.31420499422194</v>
       </c>
       <c r="P21" t="n">
-        <v>49.30939608505056</v>
+        <v>42.74677004459639</v>
       </c>
       <c r="Q21" t="n">
-        <v>41.71616033639505</v>
+        <v>36.59284107530304</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.62712415906644</v>
+        <v>41.57257534357409</v>
       </c>
       <c r="C22" t="n">
-        <v>43.24370941448534</v>
+        <v>43.8334102515653</v>
       </c>
       <c r="D22" t="n">
-        <v>38.01053890364758</v>
+        <v>39.31174043558248</v>
       </c>
       <c r="E22" t="n">
-        <v>40.6280532765502</v>
+        <v>41.57348828692027</v>
       </c>
       <c r="F22" t="n">
-        <v>40.99132292910114</v>
+        <v>41.82389205223399</v>
       </c>
       <c r="G22" t="n">
-        <v>43.38154394726367</v>
+        <v>44.59941542393511</v>
       </c>
       <c r="H22" t="n">
-        <v>45.55073468799448</v>
+        <v>47.44404936348403</v>
       </c>
       <c r="I22" t="n">
-        <v>31.83815962151112</v>
+        <v>33.82296363378439</v>
       </c>
       <c r="J22" t="n">
-        <v>40.89811865263145</v>
+        <v>41.75957609643576</v>
       </c>
       <c r="K22" t="n">
-        <v>40.62712415906644</v>
+        <v>42.62528247274795</v>
       </c>
       <c r="L22" t="n">
-        <v>41.46855801976961</v>
+        <v>42.26422687224121</v>
       </c>
       <c r="M22" t="n">
-        <v>35.38694837822114</v>
+        <v>36.3979421006205</v>
       </c>
       <c r="N22" t="n">
-        <v>13.08292627709478</v>
+        <v>11.30417453995716</v>
       </c>
       <c r="O22" t="n">
-        <v>36.60477923937967</v>
+        <v>32.24221375045121</v>
       </c>
       <c r="P22" t="n">
-        <v>47.51317362955896</v>
+        <v>49.13967554447865</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.62712415906644</v>
+        <v>41.57257534357409</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>38.10551741010843</v>
+        <v>40.51958102293959</v>
       </c>
       <c r="C23" t="n">
-        <v>40.5700463585329</v>
+        <v>43.12923997505411</v>
       </c>
       <c r="D23" t="n">
-        <v>35.64098846168331</v>
+        <v>37.90992207082513</v>
       </c>
       <c r="E23" t="n">
-        <v>38.10644903497604</v>
+        <v>40.52050768097759</v>
       </c>
       <c r="F23" t="n">
-        <v>38.37947695555135</v>
+        <v>40.88281573069536</v>
       </c>
       <c r="G23" t="n">
-        <v>40.68380467690664</v>
+        <v>43.26670964917633</v>
       </c>
       <c r="H23" t="n">
-        <v>42.70283886578606</v>
+        <v>45.43015837444472</v>
       </c>
       <c r="I23" t="n">
-        <v>31.41502258304189</v>
+        <v>31.75388155346971</v>
       </c>
       <c r="J23" t="n">
-        <v>38.3093663365271</v>
+        <v>40.78985817314559</v>
       </c>
       <c r="K23" t="n">
-        <v>39.10699316239067</v>
+        <v>40.51958102293959</v>
       </c>
       <c r="L23" t="n">
-        <v>38.74362266276362</v>
+        <v>41.35878754321205</v>
       </c>
       <c r="M23" t="n">
-        <v>33.18592764230633</v>
+        <v>35.29327639219396</v>
       </c>
       <c r="N23" t="n">
-        <v>12.32264474212352</v>
+        <v>13.04829476057281</v>
       </c>
       <c r="O23" t="n">
-        <v>30.23782001622103</v>
+        <v>36.5078835609846</v>
       </c>
       <c r="P23" t="n">
-        <v>44.55123557710447</v>
+        <v>47.38740258853089</v>
       </c>
       <c r="Q23" t="n">
-        <v>38.10551741010843</v>
+        <v>40.51958102293959</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>36.79582256974548</v>
+        <v>37.97436007444647</v>
       </c>
       <c r="C24" t="n">
-        <v>39.16250944354915</v>
+        <v>40.4304062342223</v>
       </c>
       <c r="D24" t="n">
-        <v>34.42913569594147</v>
+        <v>35.51831391467</v>
       </c>
       <c r="E24" t="n">
-        <v>36.79662675221864</v>
+        <v>37.97528849270665</v>
       </c>
       <c r="F24" t="n">
-        <v>37.01832547606791</v>
+        <v>38.24737666447238</v>
       </c>
       <c r="G24" t="n">
-        <v>39.29206138981793</v>
+        <v>40.5437730020028</v>
       </c>
       <c r="H24" t="n">
-        <v>41.26140446457417</v>
+        <v>42.55585777350589</v>
       </c>
       <c r="I24" t="n">
-        <v>31.3821917297801</v>
+        <v>31.306893604831</v>
       </c>
       <c r="J24" t="n">
-        <v>36.96138343204599</v>
+        <v>38.1775073627853</v>
       </c>
       <c r="K24" t="n">
-        <v>37.60732310549824</v>
+        <v>38.97238879594873</v>
       </c>
       <c r="L24" t="n">
-        <v>37.31271088602691</v>
+        <v>38.61026899988979</v>
       </c>
       <c r="M24" t="n">
-        <v>32.05123121955913</v>
+        <v>33.07170329510245</v>
       </c>
       <c r="N24" t="n">
-        <v>11.8334343690192</v>
+        <v>12.2802307988803</v>
       </c>
       <c r="O24" t="n">
-        <v>26.32721976082314</v>
+        <v>30.13374291193006</v>
       </c>
       <c r="P24" t="n">
-        <v>43.03641961992626</v>
+        <v>44.39789239333782</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79582256974548</v>
+        <v>37.97436007444647</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>38.00404687423057</v>
+        <v>36.67045953088566</v>
       </c>
       <c r="C25" t="n">
-        <v>40.49728706648815</v>
+        <v>39.02908312364792</v>
       </c>
       <c r="D25" t="n">
-        <v>35.51080668197332</v>
+        <v>34.31183593812306</v>
       </c>
       <c r="E25" t="n">
-        <v>38.00502174622702</v>
+        <v>36.67126097351632</v>
       </c>
       <c r="F25" t="n">
-        <v>38.28119799075004</v>
+        <v>36.8922043717935</v>
       </c>
       <c r="G25" t="n">
-        <v>40.55783146552518</v>
+        <v>39.15819368759283</v>
       </c>
       <c r="H25" t="n">
-        <v>42.51857820827322</v>
+        <v>41.12082722808222</v>
       </c>
       <c r="I25" t="n">
-        <v>31.3647727254144</v>
+        <v>31.27527288284117</v>
       </c>
       <c r="J25" t="n">
-        <v>38.21027059776258</v>
+        <v>36.835456328807</v>
       </c>
       <c r="K25" t="n">
-        <v>39.0055222186613</v>
+        <v>37.47919529156089</v>
       </c>
       <c r="L25" t="n">
-        <v>38.64098583138723</v>
+        <v>37.18558681329002</v>
       </c>
       <c r="M25" t="n">
-        <v>33.08168410029194</v>
+        <v>31.94203296105393</v>
       </c>
       <c r="N25" t="n">
-        <v>12.46620096128736</v>
+        <v>11.79311796381216</v>
       </c>
       <c r="O25" t="n">
-        <v>30.22419527978929</v>
+        <v>26.23752315823487</v>
       </c>
       <c r="P25" t="n">
-        <v>44.3885083524661</v>
+        <v>42.88979492265326</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.00404687423057</v>
+        <v>36.67045953088566</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>44.29959877519451</v>
+        <v>37.87323879521274</v>
       </c>
       <c r="C26" t="n">
-        <v>46.72386761834849</v>
+        <v>40.35789737611828</v>
       </c>
       <c r="D26" t="n">
-        <v>41.87532993204104</v>
+        <v>35.38858021430753</v>
       </c>
       <c r="E26" t="n">
-        <v>44.30065893115535</v>
+        <v>37.87421031174723</v>
       </c>
       <c r="F26" t="n">
-        <v>44.63702929807971</v>
+        <v>38.14943597108296</v>
       </c>
       <c r="G26" t="n">
-        <v>47.51742423113722</v>
+        <v>40.41823338428159</v>
       </c>
       <c r="H26" t="n">
-        <v>50.52596078268624</v>
+        <v>42.37223133220501</v>
       </c>
       <c r="I26" t="n">
-        <v>34.12003074852019</v>
+        <v>31.25681670476692</v>
       </c>
       <c r="J26" t="n">
-        <v>44.55067544317492</v>
+        <v>38.07875270672887</v>
       </c>
       <c r="K26" t="n">
-        <v>44.29959877519451</v>
+        <v>38.8712671102673</v>
       </c>
       <c r="L26" t="n">
-        <v>45.21363999648158</v>
+        <v>38.50798543948986</v>
       </c>
       <c r="M26" t="n">
-        <v>38.77871791825615</v>
+        <v>32.96781855428431</v>
       </c>
       <c r="N26" t="n">
-        <v>12.12134421576753</v>
+        <v>12.42329290452718</v>
       </c>
       <c r="O26" t="n">
-        <v>39.59774016979627</v>
+        <v>30.12016507117775</v>
       </c>
       <c r="P26" t="n">
-        <v>52.34416241505156</v>
+        <v>44.23572526788386</v>
       </c>
       <c r="Q26" t="n">
-        <v>44.29959877519451</v>
+        <v>37.87323879521274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>31.04432755774251</v>
+        <v>44.18233431505718</v>
       </c>
       <c r="C27" t="n">
-        <v>33.32468039311694</v>
+        <v>46.60018593130662</v>
       </c>
       <c r="D27" t="n">
-        <v>28.76397472236827</v>
+        <v>41.76448269880824</v>
       </c>
       <c r="E27" t="n">
-        <v>31.04592995287117</v>
+        <v>44.18339166470328</v>
       </c>
       <c r="F27" t="n">
-        <v>31.25871381176178</v>
+        <v>44.51887163328152</v>
       </c>
       <c r="G27" t="n">
-        <v>33.0085838958296</v>
+        <v>47.39164193843842</v>
       </c>
       <c r="H27" t="n">
-        <v>34.2447037764294</v>
+        <v>50.39221466132364</v>
       </c>
       <c r="I27" t="n">
-        <v>26.57941521117007</v>
+        <v>34.02971239132922</v>
       </c>
       <c r="J27" t="n">
-        <v>31.20384894857461</v>
+        <v>44.43274636370156</v>
       </c>
       <c r="K27" t="n">
-        <v>31.7580313393978</v>
+        <v>44.18233431505718</v>
       </c>
       <c r="L27" t="n">
-        <v>31.49096255585498</v>
+        <v>45.09395599862108</v>
       </c>
       <c r="M27" t="n">
-        <v>26.91373602604971</v>
+        <v>38.67606765623958</v>
       </c>
       <c r="N27" t="n">
-        <v>11.40176417687155</v>
+        <v>12.08925808124486</v>
       </c>
       <c r="O27" t="n">
-        <v>23.21011752731332</v>
+        <v>39.49292189260976</v>
       </c>
       <c r="P27" t="n">
-        <v>35.95496840295978</v>
+        <v>52.20560337351056</v>
       </c>
       <c r="Q27" t="n">
-        <v>31.04432755774251</v>
+        <v>44.18233431505718</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>41.32952285106411</v>
+        <v>30.93855981102014</v>
       </c>
       <c r="C28" t="n">
-        <v>43.50854987438959</v>
+        <v>33.21114350465102</v>
       </c>
       <c r="D28" t="n">
-        <v>39.1504958277386</v>
+        <v>28.66597611738946</v>
       </c>
       <c r="E28" t="n">
-        <v>41.33045741717883</v>
+        <v>30.94015674680291</v>
       </c>
       <c r="F28" t="n">
-        <v>41.5343830085322</v>
+        <v>31.15221565298672</v>
       </c>
       <c r="G28" t="n">
-        <v>44.37296162450767</v>
+        <v>32.89612394530677</v>
       </c>
       <c r="H28" t="n">
-        <v>47.30384951717858</v>
+        <v>34.12803237651356</v>
       </c>
       <c r="I28" t="n">
-        <v>34.99323017562343</v>
+        <v>26.48885938093491</v>
       </c>
       <c r="J28" t="n">
-        <v>41.4819560254524</v>
+        <v>31.09753771389841</v>
       </c>
       <c r="K28" t="n">
-        <v>42.18839478830661</v>
+        <v>31.64983201026565</v>
       </c>
       <c r="L28" t="n">
-        <v>41.8946460911197</v>
+        <v>31.38367312768308</v>
       </c>
       <c r="M28" t="n">
-        <v>36.21600840546098</v>
+        <v>26.82204116778418</v>
       </c>
       <c r="N28" t="n">
-        <v>10.89513511662759</v>
+        <v>11.36291846815377</v>
       </c>
       <c r="O28" t="n">
-        <v>28.0131123572261</v>
+        <v>23.13104086419477</v>
       </c>
       <c r="P28" t="n">
-        <v>48.93811978467258</v>
+        <v>35.83247014673627</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.32952285106411</v>
+        <v>30.93855981102014</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>37.19743651191263</v>
+        <v>41.18871353583777</v>
       </c>
       <c r="C29" t="n">
-        <v>39.77476523635886</v>
+        <v>43.36031663355637</v>
       </c>
       <c r="D29" t="n">
-        <v>34.62010778746602</v>
+        <v>39.01711043811914</v>
       </c>
       <c r="E29" t="n">
-        <v>37.1986807788142</v>
+        <v>41.18964491789409</v>
       </c>
       <c r="F29" t="n">
-        <v>37.48393499522629</v>
+        <v>41.39287573657905</v>
       </c>
       <c r="G29" t="n">
-        <v>39.62851580088041</v>
+        <v>44.22178334056215</v>
       </c>
       <c r="H29" t="n">
-        <v>41.34213819099776</v>
+        <v>47.14268572435943</v>
       </c>
       <c r="I29" t="n">
-        <v>30.82166669441522</v>
+        <v>34.87400855295086</v>
       </c>
       <c r="J29" t="n">
-        <v>37.4106154619277</v>
+        <v>41.34062737176235</v>
       </c>
       <c r="K29" t="n">
-        <v>38.18581437177377</v>
+        <v>42.04465930406095</v>
       </c>
       <c r="L29" t="n">
-        <v>37.82359181085091</v>
+        <v>41.7519114060618</v>
       </c>
       <c r="M29" t="n">
-        <v>32.31789493472014</v>
+        <v>36.09262078828038</v>
       </c>
       <c r="N29" t="n">
-        <v>12.88664362223227</v>
+        <v>10.85801548859319</v>
       </c>
       <c r="O29" t="n">
-        <v>29.86140548997083</v>
+        <v>27.91767193361914</v>
       </c>
       <c r="P29" t="n">
-        <v>43.27513473433219</v>
+        <v>48.77138804764827</v>
       </c>
       <c r="Q29" t="n">
-        <v>37.19743651191263</v>
+        <v>41.18871353583777</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>35.89164944584918</v>
+        <v>37.06940474649004</v>
       </c>
       <c r="C30" t="n">
-        <v>38.37152903109124</v>
+        <v>39.63786243095049</v>
       </c>
       <c r="D30" t="n">
-        <v>33.41176986060758</v>
+        <v>34.50094706202919</v>
       </c>
       <c r="E30" t="n">
-        <v>35.89303573323685</v>
+        <v>37.07064473068551</v>
       </c>
       <c r="F30" t="n">
-        <v>36.16731538369928</v>
+        <v>37.35491711597302</v>
       </c>
       <c r="G30" t="n">
-        <v>38.24087459781332</v>
+        <v>39.49211637890844</v>
       </c>
       <c r="H30" t="n">
-        <v>39.90480263682735</v>
+        <v>41.19984056419105</v>
       </c>
       <c r="I30" t="n">
-        <v>29.72522900369555</v>
+        <v>30.71558001828394</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09676807163085</v>
+        <v>37.2818499449383</v>
       </c>
       <c r="K30" t="n">
-        <v>36.84522612201204</v>
+        <v>38.05438065787921</v>
       </c>
       <c r="L30" t="n">
-        <v>36.49473015784302</v>
+        <v>37.69340484937532</v>
       </c>
       <c r="M30" t="n">
-        <v>31.18653868790546</v>
+        <v>32.20665831383339</v>
       </c>
       <c r="N30" t="n">
-        <v>12.3993979262106</v>
+        <v>12.84228842230343</v>
       </c>
       <c r="O30" t="n">
-        <v>28.79593964729873</v>
+        <v>29.75862398615251</v>
       </c>
       <c r="P30" t="n">
-        <v>41.76471232575906</v>
+        <v>43.12618382753615</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.89164944584918</v>
+        <v>37.06940474649004</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38.19965367641605</v>
+        <v>35.76811213593242</v>
       </c>
       <c r="C31" t="n">
-        <v>40.68173920079177</v>
+        <v>38.2394560963813</v>
       </c>
       <c r="D31" t="n">
-        <v>35.71756815204117</v>
+        <v>33.29676817548401</v>
       </c>
       <c r="E31" t="n">
-        <v>38.20049844498386</v>
+        <v>35.76949365178641</v>
       </c>
       <c r="F31" t="n">
-        <v>38.47556482870457</v>
+        <v>36.04282924504594</v>
       </c>
       <c r="G31" t="n">
-        <v>40.77857628187098</v>
+        <v>38.10925136930148</v>
       </c>
       <c r="H31" t="n">
-        <v>42.78539604677016</v>
+        <v>39.76745224901777</v>
       </c>
       <c r="I31" t="n">
-        <v>31.50374891773654</v>
+        <v>29.62291621271289</v>
       </c>
       <c r="J31" t="n">
-        <v>38.40495476234923</v>
+        <v>35.97252475339087</v>
       </c>
       <c r="K31" t="n">
-        <v>39.20430716759101</v>
+        <v>36.71840664760323</v>
       </c>
       <c r="L31" t="n">
-        <v>38.83955605816809</v>
+        <v>36.36911707347809</v>
       </c>
       <c r="M31" t="n">
-        <v>33.26274982280568</v>
+        <v>31.07919614013731</v>
       </c>
       <c r="N31" t="n">
-        <v>12.4104276218759</v>
+        <v>12.35671980224467</v>
       </c>
       <c r="O31" t="n">
-        <v>30.33565535492232</v>
+        <v>28.69682542503599</v>
       </c>
       <c r="P31" t="n">
-        <v>44.64696019005175</v>
+        <v>41.62096021935459</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.19965367641605</v>
+        <v>35.76811213593242</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38.04337930540151</v>
+        <v>38.06817232830872</v>
       </c>
       <c r="C32" t="n">
-        <v>40.52151645577838</v>
+        <v>40.54171463515615</v>
       </c>
       <c r="D32" t="n">
-        <v>35.56524215502375</v>
+        <v>35.59463002146212</v>
       </c>
       <c r="E32" t="n">
-        <v>38.04427577395877</v>
+        <v>38.06901418922426</v>
       </c>
       <c r="F32" t="n">
-        <v>38.31885155241905</v>
+        <v>38.3431338078445</v>
       </c>
       <c r="G32" t="n">
-        <v>40.60864866075326</v>
+        <v>40.63821840771705</v>
       </c>
       <c r="H32" t="n">
-        <v>42.59794983099742</v>
+        <v>42.63813079669255</v>
       </c>
       <c r="I32" t="n">
-        <v>31.3824917794873</v>
+        <v>31.3953145478015</v>
       </c>
       <c r="J32" t="n">
-        <v>38.24835380892495</v>
+        <v>38.27276677789973</v>
       </c>
       <c r="K32" t="n">
-        <v>39.04499039911693</v>
+        <v>39.06936785108115</v>
       </c>
       <c r="L32" t="n">
-        <v>38.68052195748375</v>
+        <v>38.70587219721803</v>
       </c>
       <c r="M32" t="n">
-        <v>33.12387965719139</v>
+        <v>33.1482610573968</v>
       </c>
       <c r="N32" t="n">
-        <v>12.39068575188652</v>
+        <v>12.3677115342345</v>
       </c>
       <c r="O32" t="n">
-        <v>30.21815967486443</v>
+        <v>30.2312415061589</v>
       </c>
       <c r="P32" t="n">
-        <v>44.45655269377982</v>
+        <v>44.49328752682793</v>
       </c>
       <c r="Q32" t="n">
-        <v>38.04337930540151</v>
+        <v>38.06817232830872</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>32.50989007482675</v>
+        <v>37.91243584607059</v>
       </c>
       <c r="C33" t="n">
-        <v>35.15863513793365</v>
+        <v>40.38204336903025</v>
       </c>
       <c r="D33" t="n">
-        <v>29.86114501171958</v>
+        <v>35.44282832311005</v>
       </c>
       <c r="E33" t="n">
-        <v>32.51103610743462</v>
+        <v>37.91332922902672</v>
       </c>
       <c r="F33" t="n">
-        <v>32.75891054355539</v>
+        <v>38.18695993102597</v>
       </c>
       <c r="G33" t="n">
-        <v>34.43650655075604</v>
+        <v>40.46887566919786</v>
       </c>
       <c r="H33" t="n">
-        <v>35.33987246731951</v>
+        <v>42.45132976166821</v>
       </c>
       <c r="I33" t="n">
-        <v>28.04467965122812</v>
+        <v>31.2744747707184</v>
       </c>
       <c r="J33" t="n">
-        <v>32.69518223219477</v>
+        <v>38.11670483733261</v>
       </c>
       <c r="K33" t="n">
-        <v>33.28559540749809</v>
+        <v>38.91059944316741</v>
       </c>
       <c r="L33" t="n">
-        <v>32.98283248862391</v>
+        <v>38.54738548416527</v>
       </c>
       <c r="M33" t="n">
-        <v>28.06696578894585</v>
+        <v>33.00986887613131</v>
       </c>
       <c r="N33" t="n">
-        <v>13.24372531553481</v>
+        <v>12.34803761480044</v>
       </c>
       <c r="O33" t="n">
-        <v>25.02371739093642</v>
+        <v>30.11415024051119</v>
       </c>
       <c r="P33" t="n">
-        <v>37.32643126464964</v>
+        <v>44.30353540388769</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.50989007482675</v>
+        <v>37.91243584607059</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>47.59145118701968</v>
+        <v>32.39912916969809</v>
       </c>
       <c r="C34" t="n">
-        <v>49.94390280477553</v>
+        <v>35.03884998203177</v>
       </c>
       <c r="D34" t="n">
-        <v>45.23899956926381</v>
+        <v>29.75940835736412</v>
       </c>
       <c r="E34" t="n">
-        <v>47.59145118701968</v>
+        <v>32.40027129778309</v>
       </c>
       <c r="F34" t="n">
-        <v>47.81261577272275</v>
+        <v>32.64730122791385</v>
       </c>
       <c r="G34" t="n">
-        <v>51.17437049684373</v>
+        <v>34.31918168050111</v>
       </c>
       <c r="H34" t="n">
-        <v>54.78441074826289</v>
+        <v>35.2194698374551</v>
       </c>
       <c r="I34" t="n">
-        <v>39.67948030357944</v>
+        <v>27.94913167813242</v>
       </c>
       <c r="J34" t="n">
-        <v>47.75601622630155</v>
+        <v>32.58379003834085</v>
       </c>
       <c r="K34" t="n">
-        <v>48.50187291328128</v>
+        <v>33.17219168122909</v>
       </c>
       <c r="L34" t="n">
-        <v>48.32661190799411</v>
+        <v>32.87046027291543</v>
       </c>
       <c r="M34" t="n">
-        <v>41.77370284032758</v>
+        <v>27.97134188717799</v>
       </c>
       <c r="N34" t="n">
-        <v>11.76225808877928</v>
+        <v>13.19860406166875</v>
       </c>
       <c r="O34" t="n">
-        <v>33.63624642383348</v>
+        <v>24.93846180928036</v>
       </c>
       <c r="P34" t="n">
-        <v>56.54874946157978</v>
+        <v>37.19926044670532</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.59145118701968</v>
+        <v>32.39912916969809</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>47.42930753788004</v>
+      </c>
+      <c r="C35" t="n">
+        <v>49.7737443739847</v>
+      </c>
+      <c r="D35" t="n">
+        <v>45.08487070177537</v>
+      </c>
+      <c r="E35" t="n">
+        <v>47.42930753788004</v>
+      </c>
+      <c r="F35" t="n">
+        <v>47.64971861781491</v>
+      </c>
+      <c r="G35" t="n">
+        <v>51.00001987361572</v>
+      </c>
+      <c r="H35" t="n">
+        <v>54.59776075014073</v>
+      </c>
+      <c r="I35" t="n">
+        <v>39.54429266857532</v>
+      </c>
+      <c r="J35" t="n">
+        <v>47.59331190554287</v>
+      </c>
+      <c r="K35" t="n">
+        <v>48.33662746545154</v>
+      </c>
+      <c r="L35" t="n">
+        <v>48.16196357284406</v>
+      </c>
+      <c r="M35" t="n">
+        <v>41.63138020784494</v>
+      </c>
+      <c r="N35" t="n">
+        <v>11.72218418052332</v>
+      </c>
+      <c r="O35" t="n">
+        <v>33.5216480326836</v>
+      </c>
+      <c r="P35" t="n">
+        <v>56.35608837721922</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>47.42930753788004</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="n">
-        <v>38.42060915692345</v>
-      </c>
-      <c r="C35" t="n">
-        <v>41.06677996031566</v>
-      </c>
-      <c r="D35" t="n">
-        <v>35.77443835353267</v>
-      </c>
-      <c r="E35" t="n">
-        <v>38.42163818759083</v>
-      </c>
-      <c r="F35" t="n">
-        <v>38.71476019577607</v>
-      </c>
-      <c r="G35" t="n">
-        <v>40.93958467092057</v>
-      </c>
-      <c r="H35" t="n">
-        <v>42.73341983937208</v>
-      </c>
-      <c r="I35" t="n">
-        <v>31.8269974312198</v>
-      </c>
-      <c r="J35" t="n">
-        <v>38.63948225141014</v>
-      </c>
-      <c r="K35" t="n">
-        <v>39.43994199784887</v>
-      </c>
-      <c r="L35" t="n">
-        <v>39.06773798670127</v>
-      </c>
-      <c r="M35" t="n">
-        <v>33.38777137970517</v>
-      </c>
-      <c r="N35" t="n">
-        <v>13.23085401695682</v>
-      </c>
-      <c r="O35" t="n">
-        <v>30.8163036728021</v>
-      </c>
-      <c r="P35" t="n">
-        <v>44.71804794191614</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>38.42060915692345</v>
+      <c r="B36" t="n">
+        <v>38.28836729080999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>40.92543010313245</v>
+      </c>
+      <c r="D36" t="n">
+        <v>35.65130447848896</v>
+      </c>
+      <c r="E36" t="n">
+        <v>38.28939277960392</v>
+      </c>
+      <c r="F36" t="n">
+        <v>38.58150587610836</v>
+      </c>
+      <c r="G36" t="n">
+        <v>40.79867261373064</v>
+      </c>
+      <c r="H36" t="n">
+        <v>42.58633348886974</v>
+      </c>
+      <c r="I36" t="n">
+        <v>31.71745045563953</v>
+      </c>
+      <c r="J36" t="n">
+        <v>38.50648703476185</v>
+      </c>
+      <c r="K36" t="n">
+        <v>39.30419163772574</v>
+      </c>
+      <c r="L36" t="n">
+        <v>38.93326873466282</v>
+      </c>
+      <c r="M36" t="n">
+        <v>33.27285229618444</v>
+      </c>
+      <c r="N36" t="n">
+        <v>13.1853140616081</v>
+      </c>
+      <c r="O36" t="n">
+        <v>30.71023545593011</v>
+      </c>
+      <c r="P36" t="n">
+        <v>44.56413059811149</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>38.28836729080999</v>
       </c>
     </row>
   </sheetData>
